--- a/data/xlsx/2024-21.xlsx
+++ b/data/xlsx/2024-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED2A304-B66B-2342-AAF7-164B9F956B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50139CEA-76A9-3742-8E1B-66A438005FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="17" xr2:uid="{D0E68875-8E12-0247-AA91-1483B3552F4D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{D0E68875-8E12-0247-AA91-1483B3552F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="192">
   <si>
     <t>team</t>
   </si>
@@ -593,6 +593,42 @@
   </si>
   <si>
     <t>Mariam Mehter</t>
+  </si>
+  <si>
+    <t>Stan Klos</t>
+  </si>
+  <si>
+    <t>Sousou Attasi</t>
+  </si>
+  <si>
+    <t>Scott Kelly</t>
+  </si>
+  <si>
+    <t>David Horner</t>
+  </si>
+  <si>
+    <t>Andrew Cheng</t>
+  </si>
+  <si>
+    <t>Bill Oehlschlager</t>
+  </si>
+  <si>
+    <t>Jay Fonville</t>
+  </si>
+  <si>
+    <t>Beads n' Beans</t>
+  </si>
+  <si>
+    <t>Welcome to the Black Parade</t>
+  </si>
+  <si>
+    <t>Tilvegas Broomball Club</t>
+  </si>
+  <si>
+    <t>Beignet, Done That</t>
+  </si>
+  <si>
+    <t>co-captain</t>
   </si>
 </sst>
 </file>
@@ -995,16 +1031,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2245625-83FC-814E-97D9-BE53A86A6933}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,6 +1053,65 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3575,7 +3674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6622E746-E77F-AA41-93CC-4C2D5A0CCF51}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3801,15 +3900,196 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73463638-12CC-9B47-9491-6A35C82DB57A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/xlsx/2024-21.xlsx
+++ b/data/xlsx/2024-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50139CEA-76A9-3742-8E1B-66A438005FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02A3559-E2AB-4B4F-994A-22378CF66F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{D0E68875-8E12-0247-AA91-1483B3552F4D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="8" xr2:uid="{D0E68875-8E12-0247-AA91-1483B3552F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="189">
   <si>
     <t>team</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Ben Overmann</t>
   </si>
   <si>
-    <t>Jown Bowman</t>
-  </si>
-  <si>
     <t>Alex Fletcher</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>Adam Goldstein</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
     <t>Myka Held</t>
   </si>
   <si>
@@ -575,9 +569,6 @@
   </si>
   <si>
     <t>09:48</t>
-  </si>
-  <si>
-    <t>Alex Flether</t>
   </si>
   <si>
     <t>13:00</t>
@@ -1033,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2245625-83FC-814E-97D9-BE53A86A6933}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1055,12 +1046,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -1069,18 +1060,18 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>42</v>
@@ -1088,30 +1079,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63911865-2BE7-3846-8868-BF9303BAE94F}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1162,13 +1155,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1197,13 +1190,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1212,13 +1205,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1266,19 +1259,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
@@ -1299,19 +1292,19 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
@@ -1332,19 +1325,19 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
@@ -1365,22 +1358,22 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
@@ -1401,16 +1394,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
@@ -1431,19 +1424,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1" t="s">
@@ -1464,19 +1457,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1" t="s">
@@ -1497,22 +1490,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="1" t="s">
@@ -1565,7 +1558,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1574,10 +1567,10 @@
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>11</v>
@@ -1635,10 +1628,10 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1694,13 +1687,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -1726,16 +1719,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
@@ -1761,13 +1754,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -1793,13 +1786,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
@@ -1825,10 +1818,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -1848,16 +1841,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -1925,13 +1918,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -2001,25 +1994,25 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>10</v>
@@ -2045,17 +2038,17 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>10</v>
@@ -2081,19 +2074,19 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>10</v>
@@ -2155,13 +2148,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2216,10 +2209,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
@@ -2242,22 +2235,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
@@ -2277,25 +2270,25 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -2315,22 +2308,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
@@ -2356,16 +2349,16 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>41</v>
@@ -2394,10 +2387,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
@@ -2455,10 +2448,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
@@ -2515,10 +2508,10 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2552,10 +2545,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2563,13 +2556,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2622,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>23</v>
@@ -2645,22 +2638,22 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -2680,19 +2673,19 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>10</v>
@@ -2718,13 +2711,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
@@ -2782,13 +2775,13 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
@@ -2803,25 +2796,25 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>10</v>
@@ -2875,10 +2868,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2910,13 +2903,13 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2924,16 +2917,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2980,22 +2973,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -3015,25 +3008,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -3059,19 +3052,19 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>10</v>
@@ -3091,22 +3084,22 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
@@ -3132,16 +3125,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -3208,10 +3201,10 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -3243,7 +3236,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -3255,10 +3248,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -3315,10 +3308,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>39</v>
@@ -3381,13 +3374,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
@@ -3407,10 +3400,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
@@ -3424,16 +3417,16 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
@@ -3492,10 +3485,10 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -3526,13 +3519,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3540,13 +3533,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -3599,10 +3592,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -3611,7 +3604,7 @@
         <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -3637,19 +3630,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -3711,13 +3704,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -3766,16 +3759,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
@@ -3802,10 +3795,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>38</v>
@@ -3835,13 +3828,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
@@ -3862,22 +3855,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
@@ -3902,7 +3895,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73463638-12CC-9B47-9491-6A35C82DB57A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3921,10 +3916,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3932,13 +3927,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3946,80 +3941,80 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
@@ -4027,66 +4022,66 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4205,7 +4200,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -4240,7 +4235,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
@@ -4272,7 +4267,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
@@ -4304,10 +4299,10 @@
         <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
@@ -4342,7 +4337,19 @@
         <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4366,7 +4373,7 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="3.5" bestFit="1" customWidth="1"/>
@@ -4394,10 +4401,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -4429,13 +4436,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4444,13 +4451,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4498,22 +4505,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
@@ -4534,22 +4541,22 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1" t="s">
@@ -4570,16 +4577,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
@@ -4600,16 +4607,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
@@ -4630,17 +4637,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
@@ -4667,7 +4676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3BDE9B-A8F6-394D-8722-1CF9505E2FBC}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4707,10 +4718,10 @@
         <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -4742,10 +4753,10 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4754,13 +4765,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4814,10 +4825,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>42</v>
@@ -4847,7 +4858,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
@@ -4877,10 +4888,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="1" t="s">
@@ -4901,22 +4912,22 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="1" t="s">
@@ -4943,13 +4954,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
@@ -5009,14 +5020,14 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
@@ -5035,7 +5046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E41CB9-6688-4742-A285-AABDD5A938B7}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5075,10 +5088,10 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -5123,7 +5136,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>14</v>
@@ -5132,7 +5145,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -5184,7 +5197,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>39</v>
@@ -5210,22 +5223,22 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -5245,25 +5258,25 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>10</v>
@@ -5283,25 +5296,25 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
@@ -5327,10 +5340,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
@@ -5353,22 +5366,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>10</v>
@@ -5426,19 +5439,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>10</v>
@@ -5453,7 +5466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4D0380-BF4F-7D41-85F6-696051E74D2E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5493,10 +5508,10 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -5527,10 +5542,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -5539,13 +5554,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -5592,19 +5607,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
@@ -5631,16 +5646,16 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1">
@@ -5693,16 +5708,16 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
@@ -5717,16 +5732,16 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
@@ -5745,7 +5760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C580D95-5BCF-6543-8119-A5794BC01C9F}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5790,13 +5807,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -5872,16 +5889,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>41</v>
@@ -5910,10 +5927,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>41</v>
@@ -5942,10 +5959,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>38</v>
@@ -5974,25 +5991,25 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
@@ -6012,22 +6029,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -6047,25 +6064,25 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -6128,13 +6145,13 @@
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>23</v>
@@ -6157,7 +6174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D78E3F6-AE83-C741-81BB-32F4535BF953}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6201,7 +6220,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -6233,13 +6252,13 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6250,13 +6269,13 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -6309,16 +6328,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -6344,19 +6363,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -6382,19 +6401,19 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>10</v>
@@ -6453,19 +6472,19 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>23</v>

--- a/data/xlsx/2024-21.xlsx
+++ b/data/xlsx/2024-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02A3559-E2AB-4B4F-994A-22378CF66F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4426CB4B-2F77-B842-8ED2-C4E4BBE6B10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="8" xr2:uid="{D0E68875-8E12-0247-AA91-1483B3552F4D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{D0E68875-8E12-0247-AA91-1483B3552F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -3895,9 +3895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73463638-12CC-9B47-9491-6A35C82DB57A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3924,80 +3922,80 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>154</v>
@@ -4008,83 +4006,86 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D12">
+    <sortCondition ref="D2:D12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6174,7 +6175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D78E3F6-AE83-C741-81BB-32F4535BF953}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/data/xlsx/2024-21.xlsx
+++ b/data/xlsx/2024-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4426CB4B-2F77-B842-8ED2-C4E4BBE6B10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2DEA2C-1F65-2E4B-B874-8F27ED79E568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{D0E68875-8E12-0247-AA91-1483B3552F4D}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="191">
   <si>
     <t>team</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>co-captain</t>
+  </si>
+  <si>
+    <t>Free Agent 2024-21</t>
+  </si>
+  <si>
+    <t>grey</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2245625-83FC-814E-97D9-BE53A86A6933}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1103,6 +1109,14 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3893,9 +3907,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73463638-12CC-9B47-9491-6A35C82DB57A}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3906,7 +3922,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -3919,8 +3935,11 @@
       <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -3933,8 +3952,11 @@
       <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
@@ -3948,7 +3970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
@@ -3962,7 +3984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>94</v>
       </c>
@@ -3976,7 +3998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -3990,7 +4012,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -4004,7 +4026,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -4018,7 +4040,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -4032,7 +4054,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
@@ -4046,7 +4068,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>137</v>
       </c>
@@ -4060,7 +4082,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -4074,7 +4096,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>

--- a/data/xlsx/2024-21.xlsx
+++ b/data/xlsx/2024-21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2DEA2C-1F65-2E4B-B874-8F27ED79E568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF625E9-4203-F848-B83E-70657D9C8649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{D0E68875-8E12-0247-AA91-1483B3552F4D}"/>
   </bookViews>
@@ -397,9 +397,6 @@
     <t>Brett Schneider (Bort)</t>
   </si>
   <si>
-    <t>Meredith Henkleman</t>
-  </si>
-  <si>
     <t>07:06</t>
   </si>
   <si>
@@ -626,6 +623,9 @@
   </si>
   <si>
     <t>grey</t>
+  </si>
+  <si>
+    <t>Meredith Henkelman</t>
   </si>
 </sst>
 </file>
@@ -1052,12 +1052,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>42</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>49</v>
@@ -1094,18 +1094,18 @@
         <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>60</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1207,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>50</v>
@@ -1225,7 +1225,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1279,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>58</v>
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>59</v>
@@ -1345,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>60</v>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>64</v>
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>58</v>
@@ -1444,7 +1444,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
@@ -1477,10 +1477,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>113</v>
@@ -1510,10 +1510,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>62</v>
@@ -1581,10 +1581,10 @@
         <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>11</v>
@@ -1645,7 +1645,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -1701,13 +1701,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -1733,13 +1733,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>85</v>
@@ -1800,7 +1800,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>43</v>
@@ -1832,7 +1832,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -1861,7 +1861,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>58</v>
@@ -1938,7 +1938,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -2014,7 +2014,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>61</v>
@@ -2052,7 +2052,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>44</v>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>10</v>
@@ -2088,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>75</v>
@@ -2097,10 +2097,10 @@
         <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>10</v>
@@ -2168,7 +2168,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2223,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>47</v>
@@ -2255,7 +2255,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>60</v>
@@ -2290,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>60</v>
@@ -2328,7 +2328,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>58</v>
@@ -2363,7 +2363,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>75</v>
@@ -2401,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>45</v>
@@ -2465,7 +2465,7 @@
         <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
@@ -2525,7 +2525,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2562,7 +2562,7 @@
         <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2629,10 +2629,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>23</v>
@@ -2661,7 +2661,7 @@
         <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>77</v>
@@ -2693,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
@@ -2725,7 +2725,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>94</v>
@@ -2789,7 +2789,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
@@ -2816,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>64</v>
@@ -2828,7 +2828,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>10</v>
@@ -2885,7 +2885,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -2923,7 +2923,7 @@
         <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2934,7 +2934,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>109</v>
@@ -2993,7 +2993,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>61</v>
@@ -3028,13 +3028,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>41</v>
@@ -3069,7 +3069,7 @@
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>75</v>
@@ -3078,7 +3078,7 @@
         <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>10</v>
@@ -3104,10 +3104,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>77</v>
@@ -3139,16 +3139,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>105</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -3218,7 +3218,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -3322,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -3388,7 +3388,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>59</v>
@@ -3414,7 +3414,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>46</v>
@@ -3437,10 +3437,10 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
@@ -3502,7 +3502,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -3539,7 +3539,7 @@
         <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3606,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -3618,7 +3618,7 @@
         <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -3644,19 +3644,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
@@ -3724,7 +3724,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -3779,10 +3779,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1" t="s">
@@ -3809,7 +3809,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>76</v>
@@ -3842,13 +3842,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
@@ -3875,16 +3875,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
@@ -3910,7 +3910,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3936,7 +3936,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3944,7 +3944,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
@@ -3953,7 +3953,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3964,7 +3964,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>59</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>77</v>
@@ -3989,10 +3989,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>60</v>
@@ -4006,7 +4006,7 @@
         <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
@@ -4014,16 +4014,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4034,7 +4034,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>84</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>45</v>
@@ -4051,7 +4051,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4065,12 +4065,12 @@
         <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -4079,7 +4079,7 @@
         <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -4090,10 +4090,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6395,7 +6395,7 @@
         <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>78</v>
@@ -6495,7 +6495,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>47</v>
